--- a/controllers/Maintanance/templates/test.xlsx
+++ b/controllers/Maintanance/templates/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>LINE</t>
   </si>
@@ -26,6 +26,274 @@
   </si>
   <si>
     <t>TOP5_ERRORS</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ASSEMBLY BOT SHIELD COVER-7</t>
+  </si>
+  <si>
+    <t>296.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [H7012] Đang dừng khẩn cấp (280.00 phút)
+ - [L7093] Lỗi camera dưới R (15.52 phút)
+ - [L7030] Bất thường băng tải 11 (0.37 phút)
+ - [L7091] Lỗi camera trên L (0.25 phút)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WIFI ASSYTOP SHIELD COVER-1</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [L7038] Bất thường băng tải 31 (4.85 phút)
+ - [L7035] Bất thường băng tải 22 (2.70 phút)
+ - [L7090] Lỗi camera dưới L (0.57 phút)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>V-CUT  PCBA</t>
+  </si>
+  <si>
+    <t>6.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [L7027] Bất thường về gốc L (6.38 phút)
+ - [L7151] Kiểm tra Fixture 01 (0.10 phút)
+ - [L7101] Gắp lỗi tay 1L (0.08 phút)</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>SOLVE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>- Cửa mở (0 phút)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>OUT_PUT</t>
+  </si>
+  <si>
+    <t>79.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cửa mở (72.00 phút)
+ - Lỗi lấy bản L2 (6.35 phút)
+ - Đang ấn nút STOP (0.82 phút)
+ - Lỗi lấy bản L1 (0.18 phút)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>NS02</t>
+  </si>
+  <si>
+    <t>11.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi ấn nắp sắt 1 (7.67 phút)
+ - Lỗi lấy bàn tay 1 (2.27 phút)
+ - Lỗi ấn nắp sắt 2 (1.78 phút)</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>RC0_RB02</t>
+  </si>
+  <si>
+    <t>82.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi ROBOT controller (48.77 phút)
+ - Lỗi check 2 (27.28 phút)
+ - Cửa mở (3.93 phút)
+ - Đang ấn nút STOP (2.63 phút)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>RC0_RB01</t>
+  </si>
+  <si>
+    <t>14.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi lấy bàn tay 2 (6.12 phút)
+ - Lỗi ROBOT controller (2.85 phút)
+ - Lỗi check 2 (2.17 phút)
+ - Lỗi nâng bản 2 (1.82 phút)
+ - Đang ấn nút STOP (0.75 phút)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>L2_BV04</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi hút ốc (11.13 phút)
+ - Cửa mở (0.28 phút)</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi nâng bản 1 (3.62 phút)
+ - Đang ấn nút STOP (0.32 phút)</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi nâng bản 1 (1.57 phút)
+ - Lỗi check 2 (0.40 phút)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>L1_BV02</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi bắn vít 2 (0.87 phút)
+ - Hết ốc (0.45 phút)
+ - Cửa mở (0.08 phút)</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>LB01</t>
+  </si>
+  <si>
+    <t>RF_RB01</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đang ấn nút STOP (7.53 phút)
+ - Lỗi thả bàn tay 1 (4.68 phút)
+ - Cửa mở (0.17 phút)
+ - Lỗi ROBOT controller (0.02 phút)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>NS01</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>- Lỗi nâng bản 1 (0.83 phút)</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>95.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cửa mở (90.60 phút)
+ - Lỗi vi 1 (4.70 phút)</t>
+  </si>
+  <si>
+    <t>94.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đang ấn nút STOP (94.55 phút)
+ - Lỗi nâng bản 1 (0.12 phút)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>NS04</t>
+  </si>
+  <si>
+    <t>92.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cửa mở (76.57 phút)
+ - Lỗi ấn nắp sắt 1 (7.02 phút)
+ - Lỗi ấn nắp sắt 2 (6.15 phút)
+ - Lỗi cảm biến nắp sắt 2 (1.62 phút)
+ - Lỗi cảm biến nắp sắt 1 (0.72 phút)</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>WF_RB01</t>
+  </si>
+  <si>
+    <t>81.35</t>
+  </si>
+  <si>
+    <t>- Lỗi ROBOT controller (81.35 phút)</t>
+  </si>
+  <si>
+    <t>WF_RB04</t>
+  </si>
+  <si>
+    <t>71.20</t>
+  </si>
+  <si>
+    <t>- Cửa khoang 3 mở (71.20 phút)</t>
+  </si>
+  <si>
+    <t>NS03</t>
+  </si>
+  <si>
+    <t>31.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lỗi hút nắp sắt (23.98 phút)
+ - Lỗi cảm biến nắp sắt 2 (6.68 phút)
+ - Lỗi ấn nắp sắt 1 (0.87 phút)
+ - Lỗi cảm biến nắp sắt 1 (0.10 phút)
+ - Đang ấn nút STOP (0.05 phút)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -451,7 +719,345 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
